--- a/ReportingTool/Template/InventoryReport.xlsx
+++ b/ReportingTool/Template/InventoryReport.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="30">
   <si>
     <t>0400</t>
   </si>
@@ -103,13 +103,16 @@
   </si>
   <si>
     <t>0427</t>
+  </si>
+  <si>
+    <t>0428</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -218,6 +221,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -264,7 +275,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -296,9 +307,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -330,6 +342,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -505,14 +518,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BC2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:BE2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AI1" workbookViewId="0">
-      <selection activeCell="BB3" sqref="BB3"/>
+    <sheetView tabSelected="1" topLeftCell="AM1" workbookViewId="0">
+      <selection activeCell="BC5" sqref="BC5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.28515625" customWidth="1"/>
     <col min="2" max="2" width="6.28515625" customWidth="1"/>
@@ -545,9 +558,11 @@
     <col min="29" max="29" width="11.42578125" customWidth="1"/>
     <col min="30" max="30" width="5.85546875" customWidth="1"/>
     <col min="31" max="31" width="11.7109375" customWidth="1"/>
+    <col min="55" max="55" width="9.7109375" customWidth="1"/>
+    <col min="57" max="57" width="10.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:55" ht="15.75">
+    <row r="1" spans="1:57" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="4"/>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -582,7 +597,7 @@
       <c r="AF1" s="5"/>
       <c r="AG1" s="5"/>
     </row>
-    <row r="2" spans="1:55" s="1" customFormat="1">
+    <row r="2" spans="1:57" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>15</v>
       </c>
@@ -746,6 +761,12 @@
         <v>28</v>
       </c>
       <c r="BC2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="BD2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="BE2" s="2" t="s">
         <v>16</v>
       </c>
     </row>
@@ -759,24 +780,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
